--- a/xlsx/胡佛研究所_intext.xlsx
+++ b/xlsx/胡佛研究所_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>胡佛研究所</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_胡佛研究所</t>
+    <t>政策_政策_维基百科_胡佛研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -41,27 +41,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E7%A0%94%E7%A9%B6%E6%89%80%E5%9C%96%E6%9B%B8%E6%AA%94%E6%A1%88%E9%A4%A8</t>
   </si>
   <si>
-    <t>胡佛研究所圖書檔案館</t>
+    <t>胡佛研究所图书档案馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%93</t>
   </si>
   <si>
-    <t>智库</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -89,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E4%B9%89</t>
@@ -107,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%98%BF%E5%BE%B9%E4%B8%B9%E5%B0%BC%E7%88%BE%E6%96%AF%E7%B1%B3%E5%BE%B7%E8%98%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國阿徹丹尼爾斯米德蘭公司</t>
+    <t>美国阿彻丹尼尔斯米德兰公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arco</t>
@@ -191,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_University_School_of_Humanities_and_Sciences</t>
@@ -221,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%95%86%E5%AD%B8%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>史丹福商學研究院</t>
+    <t>史丹福商学研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E6%B3%95%E5%BE%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史丹福法律學院</t>
+    <t>史丹福法律学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_School_of_Medicine</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/SLAC%E5%9C%8B%E5%AE%B6%E5%8A%A0%E9%80%9F%E5%99%A8%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>SLAC國家加速器實驗室</t>
+    <t>SLAC国家加速器实验室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_University_Medical_Center</t>
@@ -347,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E7%B4%80%E5%BF%B5%E6%95%99%E5%A0%82</t>
   </si>
   <si>
-    <t>史丹福紀念教堂</t>
+    <t>史丹福纪念教堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E7%A0%94%E7%A9%B6%E5%9C%92%E5%8D%80</t>
   </si>
   <si>
-    <t>史丹佛研究園區</t>
+    <t>史丹佛研究园区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_Shopping_Center</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%93%B2%E5%AD%B8%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>史丹佛哲學百科全書</t>
+    <t>史丹佛哲学百科全书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_Journal_of_East_Asian_Affairs</t>
@@ -383,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>史丹福大學出版社</t>
+    <t>史丹福大学出版社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stanford_Cardinal</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%BB%92%E5%B0%BC%E8%A9%A9</t>
   </si>
   <si>
-    <t>約翰·軒尼詩</t>
+    <t>约翰·轩尼诗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Leland_Stanford,_Jr.</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -461,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -983,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -1009,10 +1003,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -1038,10 +1032,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1067,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1096,10 +1090,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1125,10 +1119,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1154,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1183,10 +1177,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1212,10 +1206,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1241,10 +1235,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1270,10 +1264,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1299,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1328,10 +1322,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1357,10 +1351,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1386,10 +1380,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1415,10 +1409,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1444,10 +1438,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1473,10 +1467,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1502,10 +1496,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1531,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1560,10 +1554,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1618,10 +1612,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1647,10 +1641,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1676,10 +1670,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -1705,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1734,10 +1728,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1763,10 +1757,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1792,10 +1786,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1821,10 +1815,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1850,10 +1844,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1879,10 +1873,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1908,10 +1902,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1937,10 +1931,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1966,10 +1960,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1995,10 +1989,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2024,10 +2018,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2053,10 +2047,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2082,10 +2076,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2111,10 +2105,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2140,10 +2134,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2169,10 +2163,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2198,10 +2192,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2227,10 +2221,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2256,10 +2250,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2285,10 +2279,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2314,10 +2308,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2343,10 +2337,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2372,10 +2366,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2401,10 +2395,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2430,10 +2424,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2459,10 +2453,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2488,10 +2482,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2517,10 +2511,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2546,10 +2540,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2575,10 +2569,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2604,10 +2598,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2633,10 +2627,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2662,10 +2656,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2691,10 +2685,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2720,10 +2714,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2749,10 +2743,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2778,10 +2772,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2807,10 +2801,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2836,10 +2830,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -2865,10 +2859,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2894,10 +2888,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2923,10 +2917,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2952,10 +2946,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2981,10 +2975,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3010,10 +3004,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
